--- a/file/common/Province.xlsx
+++ b/file/common/Province.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\PycharmProjects1\regionalenergy\file\common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\PycharmProjects1\regionalEnergyResearch\file\common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C628536-BFFF-42E0-9025-60E40933B0F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7EF7FA-FA7B-499E-94EE-DADCE92E8C00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>北京市</t>
   </si>
@@ -111,9 +111,6 @@
     <t>宁夏回族自治区</t>
   </si>
   <si>
-    <t>新疆维吾尔</t>
-  </si>
-  <si>
     <t>Henan</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -341,6 +338,14 @@
   </si>
   <si>
     <t>Beijing</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆维吾尔自治区</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏自治区</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -438,7 +443,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -451,6 +456,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -794,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -814,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1">
         <v>40.253900000000002</v>
@@ -834,10 +840,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>39.418900000000001</v>
@@ -854,10 +860,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3">
         <v>37.968800000000002</v>
@@ -874,10 +880,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4">
         <v>37.661099999999998</v>
@@ -894,10 +900,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5">
         <v>44.340800000000002</v>
@@ -914,10 +920,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6">
         <v>41.088900000000002</v>
@@ -934,10 +940,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>43.593800000000002</v>
@@ -954,10 +960,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8">
         <v>48.515599999999999</v>
@@ -974,10 +980,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9">
         <v>31.289100000000001</v>
@@ -994,10 +1000,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10">
         <v>32.914999999999999</v>
@@ -1014,10 +1020,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11">
         <v>29.091799999999999</v>
@@ -1034,10 +1040,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12">
         <v>32.036099999999998</v>
@@ -1054,10 +1060,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13">
         <v>25.927700000000002</v>
@@ -1074,10 +1080,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14">
         <v>27.29</v>
@@ -1094,10 +1100,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15">
         <v>36.430700000000002</v>
@@ -1114,10 +1120,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16">
         <v>33.881799999999998</v>
@@ -1134,10 +1140,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17">
         <v>31.1572</v>
@@ -1154,10 +1160,10 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18">
         <v>27.3779</v>
@@ -1174,10 +1180,10 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19">
         <v>22.807600000000001</v>
@@ -1194,10 +1200,10 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20">
         <v>23.642600000000002</v>
@@ -1214,10 +1220,10 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21">
         <v>19.2041</v>
@@ -1234,10 +1240,10 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22">
         <v>30.1904</v>
@@ -1254,10 +1260,10 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23">
         <v>30.1904</v>
@@ -1274,10 +1280,10 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24">
         <v>26.938500000000001</v>
@@ -1294,10 +1300,10 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25">
         <v>25.180700000000002</v>
@@ -1310,14 +1316,14 @@
       <c r="A26" s="2">
         <v>26</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
         <v>88</v>
       </c>
-      <c r="C26" t="s">
-        <v>89</v>
-      </c>
       <c r="D26" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26">
         <v>31.68</v>
@@ -1334,10 +1340,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27">
         <v>35.639600000000002</v>
@@ -1354,10 +1360,10 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28">
         <v>40.165999999999997</v>
@@ -1374,10 +1380,10 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E29">
         <v>35.419899999999998</v>
@@ -1394,10 +1400,10 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E30">
         <v>37.309600000000003</v>
@@ -1410,14 +1416,14 @@
       <c r="A31" s="2">
         <v>31</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>29</v>
+      <c r="B31" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E31">
         <v>41.747999999999998</v>

--- a/file/common/Province.xlsx
+++ b/file/common/Province.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\PycharmProjects1\regionalEnergyResearch\file\common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7EF7FA-FA7B-499E-94EE-DADCE92E8C00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0A2CA6-BB9C-4C0D-950F-197CE9C40436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -801,7 +801,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
